--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="8340" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Args</t>
-  </si>
-  <si>
-    <t>int#ref=UIGroupConfigCategory</t>
   </si>
   <si>
     <t>组Id</t>
@@ -996,12 +993,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
@@ -1430,48 +1427,48 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1761,7 +1758,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1782,58 +1779,58 @@
       <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="5" t="s">
@@ -1842,17 +1839,17 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G4" s="5"/>
     </row>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,9 +52,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Base
-Normal
-Pop</t>
+1 Base
+2 Normal
+3 Pop</t>
         </r>
       </text>
     </comment>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -196,6 +196,9 @@
     <t>RefitH</t>
   </si>
   <si>
+    <t>ChangeSceneRemove</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -208,73 +211,82 @@
     <t>bool</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>界面名字</t>
+  </si>
+  <si>
+    <t>界面类型</t>
+  </si>
+  <si>
+    <t>层级</t>
+  </si>
+  <si>
+    <t>全屏</t>
+  </si>
+  <si>
+    <t>刘海适配</t>
+  </si>
+  <si>
+    <t>切场景时移除</t>
+  </si>
+  <si>
+    <t>UIJoystick</t>
+  </si>
+  <si>
+    <t>UIMain</t>
+  </si>
+  <si>
+    <t>## Layer2  Id = 2000</t>
+  </si>
+  <si>
+    <t>UIServerList</t>
+  </si>
+  <si>
+    <t>UILogin</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vague</t>
+  </si>
+  <si>
+    <t>OpenDelay</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>TraceId</t>
+  </si>
+  <si>
+    <t>UIGroupType</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BaseFixed</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>NormalFixed</t>
+  </si>
+  <si>
+    <t>GeneralBase</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>界面名字</t>
-  </si>
-  <si>
-    <t>界面类型</t>
-  </si>
-  <si>
-    <t>层级</t>
-  </si>
-  <si>
-    <t>全屏</t>
-  </si>
-  <si>
-    <t>刘海适配</t>
-  </si>
-  <si>
-    <t>UILogin</t>
-  </si>
-  <si>
-    <t>UIJoystick</t>
-  </si>
-  <si>
-    <t>UIMain</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Vague</t>
-  </si>
-  <si>
-    <t>OpenDelay</t>
-  </si>
-  <si>
-    <t>Conditions</t>
-  </si>
-  <si>
-    <t>TraceId</t>
-  </si>
-  <si>
-    <t>UIGroupType</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>BaseFixed</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>NormalFixed</t>
-  </si>
-  <si>
-    <t>GeneralBase</t>
   </si>
   <si>
     <t>组类型</t>
@@ -323,7 +335,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +389,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -854,52 +873,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,83 +927,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1026,12 +1045,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1381,30 +1416,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="22" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="22" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="20.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="24" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="24" customWidth="1"/>
+    <col min="12" max="15" width="9" style="24"/>
+    <col min="16" max="16" width="9" style="25"/>
+    <col min="17" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="21" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -1425,142 +1462,207 @@
       <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" s="21" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="2:7">
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="21">
+      <c r="E5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="F5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="22" customFormat="1" spans="2:16">
+      <c r="B6" s="22">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+    </row>
+    <row r="7" s="22" customFormat="1" spans="8:16">
+      <c r="H7" s="27"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+    </row>
+    <row r="8" s="22" customFormat="1" spans="8:16">
+      <c r="H8" s="27"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="22">
         <v>2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E11" s="22">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="21" t="b">
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="22">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="b">
+      <c r="G12" s="22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="2:7">
-      <c r="B6" s="21">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="H12" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="21" customFormat="1" spans="2:8">
-      <c r="B7" s="21">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" s="21" customFormat="1" spans="8:8">
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" s="21" customFormat="1" spans="8:8">
-      <c r="H9" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1576,7 +1678,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1597,50 +1699,50 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="10" customFormat="1" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:11">
@@ -1649,19 +1751,19 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -1670,56 +1772,56 @@
     </row>
     <row r="4" s="11" customFormat="1" spans="1:11">
       <c r="A4" s="17" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -1757,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1777,79 +1879,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1861,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="b">
         <v>1</v>
@@ -1875,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="b">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -532,12 +532,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1003,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1056,17 +1056,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1418,8 +1409,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1465,14 +1456,14 @@
       <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="13.5" spans="1:16">
       <c r="A2" s="9" t="s">
@@ -1499,14 +1490,14 @@
       <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" s="21" customFormat="1" ht="13.5" spans="1:16">
       <c r="A3" s="13" t="s">
@@ -1530,17 +1521,17 @@
       <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="2:7">
       <c r="B5" s="22">
@@ -1581,37 +1572,37 @@
       <c r="G6" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
     </row>
     <row r="7" s="22" customFormat="1" spans="8:16">
-      <c r="H7" s="27"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" s="22" customFormat="1" spans="8:16">
-      <c r="H8" s="27"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="23" t="s">
@@ -1677,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1826,7 +1817,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
@@ -1860,12 +1851,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="35" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
     <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
@@ -1960,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
@@ -1974,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -238,7 +238,7 @@
     <t>UIMain</t>
   </si>
   <si>
-    <t>## Layer2  Id = 2000</t>
+    <t xml:space="preserve"> Layer2  Id = 2000</t>
   </si>
   <si>
     <t>UIServerList</t>
@@ -532,12 +532,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1003,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -1058,6 +1058,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1409,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1604,8 +1607,11 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1668,7 +1674,7 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -1412,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1856,8 +1856,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
+    <author>shiqiang.chen</author>
   </authors>
   <commentList>
-    <comment ref="J5" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,6 +115,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="D4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>shiqiang.chen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+通用大世界场景类型，
+对没有配置场景组的都显示这条</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -124,29 +148,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-UIGroupConfig中的Id</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -262,49 +264,34 @@
     <t>TraceId</t>
   </si>
   <si>
+    <t>SubIds</t>
+  </si>
+  <si>
     <t>UIGroupType</t>
   </si>
   <si>
     <t>(list#sep=,),int</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>BaseFixed</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>NormalFixed</t>
+    <t>组类型</t>
+  </si>
+  <si>
+    <t>背景是否模糊</t>
+  </si>
+  <si>
+    <t>黑幕过度</t>
+  </si>
+  <si>
+    <t>组打开条件</t>
+  </si>
+  <si>
+    <t>追溯Id</t>
   </si>
   <si>
     <t>GeneralBase</t>
   </si>
   <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>组类型</t>
-  </si>
-  <si>
-    <t>背景是否模糊</t>
-  </si>
-  <si>
-    <t>黑幕过度</t>
-  </si>
-  <si>
-    <t>界面打开条件</t>
-  </si>
-  <si>
-    <t>追溯Id</t>
-  </si>
-  <si>
-    <t>GroupId</t>
+    <t>0,1</t>
   </si>
   <si>
     <t>PanelName</t>
@@ -314,9 +301,6 @@
   </si>
   <si>
     <t>Args</t>
-  </si>
-  <si>
-    <t>组Id</t>
   </si>
   <si>
     <t>是否打开</t>
@@ -335,7 +319,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,13 +364,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.8"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -873,52 +850,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,140 +904,139 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1413,251 +1389,251 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="24" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="24" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="24" customWidth="1"/>
-    <col min="12" max="15" width="9" style="24"/>
-    <col min="16" max="16" width="9" style="25"/>
-    <col min="17" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="20.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="18" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="18" customWidth="1"/>
+    <col min="12" max="15" width="9" style="18"/>
+    <col min="16" max="16" width="9" style="19"/>
+    <col min="17" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" s="3" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
-    <row r="3" s="21" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:16">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="2:7">
-      <c r="B5" s="22">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="22" t="b">
+      <c r="F5" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="22" t="b">
+      <c r="G5" s="16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="22" customFormat="1" spans="2:16">
-      <c r="B6" s="22">
+    <row r="6" s="16" customFormat="1" spans="2:16">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="22" t="b">
+      <c r="F6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="22" t="b">
+      <c r="G6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
-    <row r="7" s="22" customFormat="1" spans="8:16">
-      <c r="H7" s="26"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+    <row r="7" s="16" customFormat="1" spans="8:16">
+      <c r="H7" s="20"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
-    <row r="8" s="22" customFormat="1" spans="8:16">
-      <c r="H8" s="26"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+    <row r="8" s="16" customFormat="1" spans="8:16">
+      <c r="H8" s="20"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="22">
+      <c r="B11" s="16">
         <v>2000</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="22" t="b">
+      <c r="F11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="22" t="b">
+      <c r="G11" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="24" t="b">
+      <c r="H11" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="22">
+      <c r="B12" s="16">
         <v>2001</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="22" t="b">
+      <c r="F12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="22" t="b">
+      <c r="G12" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="24" t="b">
+      <c r="H12" s="18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1672,179 +1648,126 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="6" width="11.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="36.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="3" width="11.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:11">
+    <row r="1" s="8" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="H1" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" s="10" customFormat="1" spans="1:11">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:9">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="G2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:11">
-      <c r="A3" s="17" t="s">
+    <row r="3" s="10" customFormat="1" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" s="11" customFormat="1" spans="1:11">
-      <c r="A4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="F4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -1854,21 +1777,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
+    <col min="1" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="18.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1876,107 +1800,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="5"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8"/>
+    <row r="4" spans="2:4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UIConfig" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>UILogin</t>
+  </si>
+  <si>
+    <t>UICreateRole</t>
+  </si>
+  <si>
+    <t>UIChooseRole</t>
   </si>
   <si>
     <t>Type</t>
@@ -319,7 +325,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +385,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9.8"/>
+      <color rgb="FF66C3CC"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -509,12 +522,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -850,52 +863,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,83 +917,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,25 +1016,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1039,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1386,31 +1388,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="18" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="18" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="18" customWidth="1"/>
-    <col min="12" max="15" width="9" style="18"/>
-    <col min="16" max="16" width="9" style="19"/>
-    <col min="17" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="20.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="14" customWidth="1"/>
+    <col min="9" max="11" width="9" style="14"/>
+    <col min="12" max="12" width="9" style="15"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1439,12 +1438,8 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:16">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1473,12 +1468,8 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:16">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1507,133 +1498,169 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+    </row>
+    <row r="4" s="12" customFormat="1" spans="1:12">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="2:7">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="b">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="16" t="b">
+      <c r="G5" s="12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:16">
-      <c r="B6" s="16">
+    <row r="6" s="12" customFormat="1" spans="2:12">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="b">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="b">
+      <c r="G6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" s="16" customFormat="1" spans="8:16">
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" s="16" customFormat="1" spans="8:16">
-      <c r="H8" s="20"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" s="12" customFormat="1" spans="8:12">
+      <c r="H7" s="16"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" s="12" customFormat="1" spans="8:12">
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>2000</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>2</v>
       </c>
-      <c r="F11" s="16" t="b">
+      <c r="F11" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="16" t="b">
+      <c r="G11" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="18" t="b">
+      <c r="H11" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>2001</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="b">
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="b">
+      <c r="G12" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="18" t="b">
+      <c r="H12" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="12">
+        <v>2002</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="12">
+        <v>2003</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1650,24 +1677,24 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="11.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="11" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="11" customWidth="1"/>
+    <col min="2" max="3" width="11.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.25" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
+    <row r="1" s="5" customFormat="1" ht="20.25" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1678,93 +1705,91 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:9">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" spans="1:8">
-      <c r="A3" s="14" t="s">
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:8">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="G3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="11" t="b">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="b">
+      <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1800,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -1839,10 +1864,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5"/>
     </row>

--- a/Unity/Assets/Config/Excel/UIConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UIConfig.xlsx
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>UIChooseRole</t>
+  </si>
+  <si>
+    <t>UIBag</t>
   </si>
   <si>
     <t>Type</t>
@@ -1388,10 +1391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1661,6 +1664,29 @@
         <v>0</v>
       </c>
       <c r="H14" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1705,22 +1731,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:9">
@@ -1731,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>11</v>
@@ -1740,13 +1766,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:8">
@@ -1757,19 +1783,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -1777,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>0</v>
@@ -1789,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1825,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -1864,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5"/>
     </row>
